--- a/tests/data.gui/test/nmr/dsn.1.no.ind/kev.nmr.constants.data.xlsx
+++ b/tests/data.gui/test/nmr/dsn.1.no.ind/kev.nmr.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t xml:space="preserve">Mc</t>
   </si>
@@ -296,16 +296,19 @@
     <t xml:space="preserve">3.2705078125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120927511705846</t>
+    <t xml:space="preserve">0.120927511702435</t>
   </si>
   <si>
     <t xml:space="preserve">3.09423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193881254445253</t>
+    <t xml:space="preserve">0.193881254438565</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992452</t>
   </si>
 </sst>
 </file>
@@ -781,12 +784,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.861388132436905</v>
+        <v>0.861388132430255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.861388132436905</v>
+        <v>0.861388132430254</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -812,8 +815,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.992452023534722</v>
+      <c r="A2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -872,13 +875,13 @@
         <v>78</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0237582114025366</v>
+        <v>0.0237582114025367</v>
       </c>
       <c r="D3" t="n">
         <v>0.0117761768349091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0202341309321704</v>
+        <v>0.0202341309321705</v>
       </c>
     </row>
   </sheetData>
@@ -1630,13 +1633,13 @@
         <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>5.09096092682027e-22</v>
+        <v>0.000000000000000000000509096092682027</v>
       </c>
       <c r="C2" t="n">
-        <v>9.49090390782711e-21</v>
+        <v>0.00000000000000000000949090390782711</v>
       </c>
       <c r="D2" t="n">
-        <v>3.21986607951741e-42</v>
+        <v>0.00000000000000000000000000000000000000000321986607951741</v>
       </c>
     </row>
     <row r="3">
@@ -1644,13 +1647,13 @@
         <v>0.00920304045145457</v>
       </c>
       <c r="B3" t="n">
-        <v>4.64497832834038e-05</v>
+        <v>0.0000464497832834038</v>
       </c>
       <c r="C3" t="n">
         <v>0.000796934880413684</v>
       </c>
       <c r="D3" t="n">
-        <v>2.46681736168496e-08</v>
+        <v>0.0000000246681736168496</v>
       </c>
     </row>
     <row r="4">
@@ -1664,7 +1667,7 @@
         <v>0.00196456830108582</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71694738506421e-07</v>
+        <v>0.000000171694738506421</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1681,7 @@
         <v>0.00345834254795833</v>
       </c>
       <c r="D5" t="n">
-        <v>6.53603346606485e-07</v>
+        <v>0.000000653603346606485</v>
       </c>
     </row>
     <row r="6">
@@ -1686,13 +1689,13 @@
         <v>0.00481353572339954</v>
       </c>
       <c r="B6" t="n">
-        <v>0.000577739694218463</v>
+        <v>0.000577739694218462</v>
       </c>
       <c r="C6" t="n">
         <v>0.00518446824773636</v>
       </c>
       <c r="D6" t="n">
-        <v>1.99602922139205e-06</v>
+        <v>0.00000199602922139204</v>
       </c>
     </row>
     <row r="7">
@@ -1706,7 +1709,7 @@
         <v>0.00682548553996823</v>
       </c>
       <c r="D7" t="n">
-        <v>5.25450603264349e-06</v>
+        <v>0.00000525450603264349</v>
       </c>
     </row>
     <row r="8">
@@ -1720,7 +1723,7 @@
         <v>0.00835759024942616</v>
       </c>
       <c r="D8" t="n">
-        <v>1.53454664069343e-05</v>
+        <v>0.0000153454664069343</v>
       </c>
     </row>
     <row r="9">
@@ -1734,7 +1737,7 @@
         <v>0.00920496161593412</v>
       </c>
       <c r="D9" t="n">
-        <v>4.01205555402379e-05</v>
+        <v>0.0000401205555402379</v>
       </c>
     </row>
     <row r="10">
@@ -1748,7 +1751,7 @@
         <v>0.00956653109286165</v>
       </c>
       <c r="D10" t="n">
-        <v>9.73193146141166e-05</v>
+        <v>0.0000973193146141166</v>
       </c>
     </row>
     <row r="11">
@@ -1795,7 +1798,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.60482421606012e-05</v>
+        <v>0.0000760482421606012</v>
       </c>
       <c r="B14" t="n">
         <v>0.0670063226067838</v>
@@ -1809,7 +1812,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.85422965334617e-05</v>
+        <v>0.0000585422965334617</v>
       </c>
       <c r="B15" t="n">
         <v>0.0861450905677994</v>
@@ -1823,7 +1826,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.38291736069006e-05</v>
+        <v>0.0000538291736069006</v>
       </c>
       <c r="B16" t="n">
         <v>0.0933107351522563</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.47900765725579e-05</v>
+        <v>0.0000447900765725579</v>
       </c>
       <c r="B17" t="n">
         <v>0.111010958225265</v>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.34910151506166e-05</v>
+        <v>0.0000334910151506166</v>
       </c>
       <c r="B18" t="n">
         <v>0.145516339197637</v>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.34051889629037e-05</v>
+        <v>0.0000234051889629037</v>
       </c>
       <c r="B19" t="n">
         <v>0.201569596614746</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.58301590858282e-05</v>
+        <v>0.0000158301590858282</v>
       </c>
       <c r="B20" t="n">
         <v>0.284409449728669</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.05739224031399e-05</v>
+        <v>0.0000105739224031399</v>
       </c>
       <c r="B21" t="n">
         <v>0.400085074280002</v>
@@ -1907,7 +1910,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.18642628914081e-06</v>
+        <v>0.00000718642628914081</v>
       </c>
       <c r="B22" t="n">
         <v>0.54670259054066</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.99172145244912e-06</v>
+        <v>0.00000599172145244912</v>
       </c>
       <c r="B23" t="n">
         <v>0.630116561806646</v>
@@ -1935,7 +1938,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.8086367272004e-06</v>
+        <v>0.0000048086367272004</v>
       </c>
       <c r="B24" t="n">
         <v>0.745050396611481</v>
@@ -1949,7 +1952,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.69256884228987e-06</v>
+        <v>0.00000369256884228987</v>
       </c>
       <c r="B25" t="n">
         <v>0.905602611661866</v>
@@ -1963,7 +1966,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.67756446832336e-06</v>
+        <v>0.00000267756446832336</v>
       </c>
       <c r="B26" t="n">
         <v>1.13870878522093</v>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.85280617928829e-06</v>
+        <v>0.00000185280617928829</v>
       </c>
       <c r="B27" t="n">
         <v>1.464771368136</v>
@@ -1991,7 +1994,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.22401783727153e-06</v>
+        <v>0.00000122401783727153</v>
       </c>
       <c r="B28" t="n">
         <v>1.92145951891911</v>
@@ -2005,7 +2008,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7.80217189336738e-07</v>
+        <v>0.000000780217189336738</v>
       </c>
       <c r="B29" t="n">
         <v>2.54802276948593</v>
@@ -2019,7 +2022,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.72839403072187e-07</v>
+        <v>0.000000372839403072187</v>
       </c>
       <c r="B30" t="n">
         <v>3.9562326691016</v>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.75729086770625e-07</v>
+        <v>0.000000175729086770625</v>
       </c>
       <c r="B31" t="n">
         <v>6.05907554621305</v>
@@ -2047,7 +2050,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.04631121764195e-07</v>
+        <v>0.000000104631121764195</v>
       </c>
       <c r="B32" t="n">
         <v>8.0527064028879</v>
@@ -2061,7 +2064,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.60760880710378e-08</v>
+        <v>0.0000000660760880710378</v>
       </c>
       <c r="B33" t="n">
         <v>10.312323789109</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.33627921333129e-08</v>
+        <v>0.0000000433627921333129</v>
       </c>
       <c r="B34" t="n">
         <v>12.8948591941132</v>
@@ -2222,13 +2225,13 @@
         <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>8.51345960606569</v>
+        <v>8.5134596060657</v>
       </c>
       <c r="E2" t="n">
         <v>8.63008507723527</v>
       </c>
       <c r="F2" t="n">
-        <v>8.8009816199255</v>
+        <v>8.80098161992551</v>
       </c>
       <c r="G2" t="n">
         <v>9.019671191581</v>
@@ -2261,7 +2264,7 @@
         <v>9.98819184103116</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.99688099850966</v>
+        <v>9.99688099850967</v>
       </c>
       <c r="R2" t="n">
         <v>9.99982706864232</v>
@@ -2332,28 +2335,28 @@
         <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0537596060656949</v>
+        <v>0.0537596060656984</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0848850772352687</v>
+        <v>0.0848850772352723</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0235183800744974</v>
+        <v>-0.0235183800744938</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0926288084190041</v>
+        <v>-0.0926288084190023</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.110066206612254</v>
+        <v>-0.110066206612252</v>
       </c>
       <c r="I3" t="n">
         <v>-0.0449760522773062</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0413384422520675</v>
+        <v>0.0413384422520693</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0750791472866918</v>
+        <v>0.0750791472866936</v>
       </c>
       <c r="L3" t="n">
         <v>0.0498937545029374</v>
@@ -2371,7 +2374,7 @@
         <v>0.00429184103115787</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.0023190014903367</v>
+        <v>-0.00231900149033493</v>
       </c>
       <c r="R3" t="n">
         <v>-0.00487293135767608</v>
@@ -2395,7 +2398,7 @@
         <v>-0.0246065624259675</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.0198057826098559</v>
+        <v>-0.0198057826098541</v>
       </c>
       <c r="Z3" t="n">
         <v>-0.014106587741507</v>
@@ -2404,7 +2407,7 @@
         <v>-0.00718540262080403</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.000712126198523677</v>
+        <v>-0.000712126198521901</v>
       </c>
       <c r="AC3" t="n">
         <v>0.0127775399320456</v>
@@ -2416,16 +2419,16 @@
         <v>0.0342658602568786</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0433661398884659</v>
+        <v>0.0433661398884677</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0326713632702482</v>
+        <v>0.03267136327025</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.00995432782113603</v>
+        <v>0.00995432782113781</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.0217030571220107</v>
+        <v>-0.0217030571220089</v>
       </c>
       <c r="AJ3" t="n">
         <v>-0.0619120020088797</v>
@@ -2566,13 +2569,13 @@
         <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>8.51345960606569</v>
+        <v>8.5134596060657</v>
       </c>
       <c r="E2" t="n">
         <v>8.63008507723527</v>
       </c>
       <c r="F2" t="n">
-        <v>8.8009816199255</v>
+        <v>8.80098161992551</v>
       </c>
       <c r="G2" t="n">
         <v>9.019671191581</v>
@@ -2605,7 +2608,7 @@
         <v>9.98819184103116</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.99688099850966</v>
+        <v>9.99688099850967</v>
       </c>
       <c r="R2" t="n">
         <v>9.99982706864232</v>
@@ -2676,28 +2679,28 @@
         <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00635478871185679</v>
+        <v>0.00635478871185721</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00993365599813565</v>
+        <v>0.00993365599813606</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0026651232448861</v>
+        <v>-0.00266512324488569</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0101652500926225</v>
+        <v>-0.0101652500926223</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0117308855341008</v>
+        <v>-0.0117308855341006</v>
       </c>
       <c r="I3" t="n">
         <v>-0.00470544472105983</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00426248605432632</v>
+        <v>0.0042624860543265</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00766630049693588</v>
+        <v>0.00766630049693606</v>
       </c>
       <c r="L3" t="n">
         <v>0.00504849330691775</v>
@@ -2715,7 +2718,7 @@
         <v>0.000429876203803912</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.000231918702529873</v>
+        <v>-0.000231918702529695</v>
       </c>
       <c r="R3" t="n">
         <v>-0.000487064215586282</v>
@@ -2739,7 +2742,7 @@
         <v>-0.00242622806633545</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.001950828131973</v>
+        <v>-0.00195082813197282</v>
       </c>
       <c r="Z3" t="n">
         <v>-0.00138761056270418</v>
@@ -2748,7 +2751,7 @@
         <v>-0.00070562728280507</v>
       </c>
       <c r="AB3" t="n">
-        <v>-6.97759333839913e-05</v>
+        <v>-0.0000697759333838173</v>
       </c>
       <c r="AC3" t="n">
         <v>0.00124955161329254</v>
@@ -2760,16 +2763,16 @@
         <v>0.00333448748145021</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0042030005997796</v>
+        <v>0.00420300059977977</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00315080847801645</v>
+        <v>0.00315080847801663</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.000955869349728347</v>
+        <v>0.000955869349728518</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.00207456455785602</v>
+        <v>-0.00207456455785585</v>
       </c>
       <c r="AJ3" t="n">
         <v>-0.00588864178592704</v>
